--- a/Tesis/Resultados/Escalon/CC/SENTADO_Izquierdo_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/CC/SENTADO_Izquierdo_layer_1.xlsx
@@ -31,436 +31,436 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[0.469217985868454]</t>
-  </si>
-  <si>
-    <t>[0.6861670017242432]</t>
-  </si>
-  <si>
-    <t>[0.43001264333724976]</t>
-  </si>
-  <si>
-    <t>[0.42653363943099976]</t>
-  </si>
-  <si>
-    <t>[0.3700878620147705]</t>
-  </si>
-  <si>
-    <t>[0.23109658062458038]</t>
-  </si>
-  <si>
-    <t>[0.030028343200683594]</t>
-  </si>
-  <si>
-    <t>[-0.006392552983015776]</t>
-  </si>
-  <si>
-    <t>[-0.45582473278045654]</t>
-  </si>
-  <si>
-    <t>[0.21621938049793243]</t>
-  </si>
-  <si>
-    <t>[-0.3558329641819]</t>
-  </si>
-  <si>
-    <t>[0.2519627511501312]</t>
-  </si>
-  <si>
-    <t>[0.2739447057247162]</t>
-  </si>
-  <si>
-    <t>[0.40991345047950745]</t>
-  </si>
-  <si>
-    <t>[0.2295215129852295]</t>
-  </si>
-  <si>
-    <t>[0.4215494394302368]</t>
-  </si>
-  <si>
-    <t>[-0.5737526416778564]</t>
-  </si>
-  <si>
-    <t>[0.10203201323747635]</t>
-  </si>
-  <si>
-    <t>[0.12739138305187225]</t>
-  </si>
-  <si>
-    <t>[0.1213468462228775]</t>
-  </si>
-  <si>
-    <t>[0.4420967102050781]</t>
-  </si>
-  <si>
-    <t>[-0.1748104691505432]</t>
-  </si>
-  <si>
-    <t>[-0.17933432757854462]</t>
-  </si>
-  <si>
-    <t>[-0.06649047136306763]</t>
-  </si>
-  <si>
-    <t>[0.4319888949394226]</t>
-  </si>
-  <si>
-    <t>[0.11981824785470963]</t>
-  </si>
-  <si>
-    <t>[-0.05868839472532272]</t>
-  </si>
-  <si>
-    <t>[0.6304800510406494]</t>
-  </si>
-  <si>
-    <t>[-0.3718229830265045]</t>
-  </si>
-  <si>
-    <t>[-0.4535925090312958]</t>
-  </si>
-  <si>
-    <t>[-0.014982630498707294]</t>
-  </si>
-  <si>
-    <t>[0.014058125205338001]</t>
-  </si>
-  <si>
-    <t>[-0.28606313467025757]</t>
-  </si>
-  <si>
-    <t>[-0.07029863446950912]</t>
-  </si>
-  <si>
-    <t>[-0.4511162042617798]</t>
-  </si>
-  <si>
-    <t>[0.624362587928772]</t>
-  </si>
-  <si>
-    <t>[0.4642133116722107]</t>
-  </si>
-  <si>
-    <t>[0.0007648923783563077]</t>
-  </si>
-  <si>
-    <t>[-0.1563863605260849]</t>
-  </si>
-  <si>
-    <t>[-0.27559199929237366]</t>
-  </si>
-  <si>
-    <t>[0.06423421204090118]</t>
-  </si>
-  <si>
-    <t>[0.5254966616630554]</t>
-  </si>
-  <si>
-    <t>[0.39024055004119873]</t>
-  </si>
-  <si>
-    <t>[-0.07785598188638687]</t>
-  </si>
-  <si>
-    <t>[0.03769807144999504]</t>
-  </si>
-  <si>
-    <t>[0.06402952969074249]</t>
-  </si>
-  <si>
-    <t>[0.6099129915237427]</t>
-  </si>
-  <si>
-    <t>[0.3385279178619385]</t>
-  </si>
-  <si>
-    <t>[0.7264312505722046]</t>
-  </si>
-  <si>
-    <t>[0.41777631640434265]</t>
-  </si>
-  <si>
-    <t>[0.638422429561615]</t>
-  </si>
-  <si>
-    <t>[-0.03219339996576309]</t>
-  </si>
-  <si>
-    <t>[-0.2786005139350891]</t>
-  </si>
-  <si>
-    <t>[0.34973740577697754]</t>
-  </si>
-  <si>
-    <t>[-0.45356816053390503]</t>
-  </si>
-  <si>
-    <t>[-0.42935991287231445]</t>
-  </si>
-  <si>
-    <t>[0.020994428545236588]</t>
-  </si>
-  <si>
-    <t>[0.4338998794555664]</t>
-  </si>
-  <si>
-    <t>[-0.4346078932285309]</t>
-  </si>
-  <si>
-    <t>[0.05145004019141197]</t>
-  </si>
-  <si>
-    <t>[0.6471807956695557]</t>
-  </si>
-  <si>
-    <t>[0.03653087466955185]</t>
-  </si>
-  <si>
-    <t>[0.3588724434375763]</t>
-  </si>
-  <si>
-    <t>[-0.3695825934410095]</t>
-  </si>
-  <si>
-    <t>[0.15162089467048645]</t>
-  </si>
-  <si>
-    <t>[0.6658118963241577]</t>
-  </si>
-  <si>
-    <t>[0.12560297548770905]</t>
-  </si>
-  <si>
-    <t>[0.11128414422273636]</t>
-  </si>
-  <si>
-    <t>[0.5478602647781372]</t>
-  </si>
-  <si>
-    <t>[0.46015727519989014]</t>
-  </si>
-  <si>
-    <t>[0.11732397973537445]</t>
-  </si>
-  <si>
-    <t>[-0.4530465006828308]</t>
-  </si>
-  <si>
-    <t>[0.14459997415542603]</t>
-  </si>
-  <si>
-    <t>[0.11787503212690353]</t>
-  </si>
-  <si>
-    <t>[0.1565954089164734]</t>
-  </si>
-  <si>
-    <t>[0.5058905482292175]</t>
-  </si>
-  <si>
-    <t>[-0.013871990144252777]</t>
-  </si>
-  <si>
-    <t>[0.20459479093551636]</t>
-  </si>
-  <si>
-    <t>[-0.4339589476585388]</t>
-  </si>
-  <si>
-    <t>[0.14727003872394562]</t>
-  </si>
-  <si>
-    <t>[-0.6881508827209473]</t>
-  </si>
-  <si>
-    <t>[0.2677857279777527]</t>
-  </si>
-  <si>
-    <t>[-0.18606136739253998]</t>
-  </si>
-  <si>
-    <t>[0.4102309048175812]</t>
-  </si>
-  <si>
-    <t>[-0.0752631351351738]</t>
-  </si>
-  <si>
-    <t>[0.444539338350296]</t>
-  </si>
-  <si>
-    <t>[0.05869263410568237]</t>
-  </si>
-  <si>
-    <t>[-0.37027284502983093]</t>
-  </si>
-  <si>
-    <t>[0.02279406599700451]</t>
-  </si>
-  <si>
-    <t>[0.015544089488685131]</t>
-  </si>
-  <si>
-    <t>[0.43910589814186096]</t>
-  </si>
-  <si>
-    <t>[-0.08487745374441147]</t>
-  </si>
-  <si>
-    <t>[-0.1661093533039093]</t>
-  </si>
-  <si>
-    <t>[0.015766583383083344]</t>
-  </si>
-  <si>
-    <t>[-0.21517807245254517]</t>
-  </si>
-  <si>
-    <t>[-0.45581915974617004]</t>
-  </si>
-  <si>
-    <t>[0.12669144570827484]</t>
-  </si>
-  <si>
-    <t>[-0.3966679871082306]</t>
-  </si>
-  <si>
-    <t>[-0.012791951186954975]</t>
-  </si>
-  <si>
-    <t>[0.006091292481869459]</t>
-  </si>
-  <si>
-    <t>[-0.2852283716201782]</t>
-  </si>
-  <si>
-    <t>[0.27412474155426025]</t>
-  </si>
-  <si>
-    <t>[-0.2764257788658142]</t>
-  </si>
-  <si>
-    <t>[0.25179266929626465]</t>
-  </si>
-  <si>
-    <t>[0.3062344193458557]</t>
-  </si>
-  <si>
-    <t>[-0.6297090649604797]</t>
-  </si>
-  <si>
-    <t>[0.354809433221817]</t>
-  </si>
-  <si>
-    <t>[-0.44340452551841736]</t>
-  </si>
-  <si>
-    <t>[-0.6196197271347046]</t>
-  </si>
-  <si>
-    <t>[-0.40169575810432434]</t>
-  </si>
-  <si>
-    <t>[-0.0770527720451355]</t>
-  </si>
-  <si>
-    <t>[-0.16424617171287537]</t>
-  </si>
-  <si>
-    <t>[0.3285073935985565]</t>
-  </si>
-  <si>
-    <t>[-0.42073875665664673]</t>
-  </si>
-  <si>
-    <t>[-0.10199785977602005]</t>
-  </si>
-  <si>
-    <t>[-0.061336930841207504]</t>
-  </si>
-  <si>
-    <t>[-0.3537268340587616]</t>
-  </si>
-  <si>
-    <t>[0.20884934067726135]</t>
-  </si>
-  <si>
-    <t>[0.3345664441585541]</t>
-  </si>
-  <si>
-    <t>[-0.01781483367085457]</t>
-  </si>
-  <si>
-    <t>[-0.3427450954914093]</t>
-  </si>
-  <si>
-    <t>[-0.007914169691503048]</t>
-  </si>
-  <si>
-    <t>[-0.4972660541534424]</t>
-  </si>
-  <si>
-    <t>[-0.3584487736225128]</t>
-  </si>
-  <si>
-    <t>[0.08777343481779099]</t>
-  </si>
-  <si>
-    <t>[0.08120803534984589]</t>
-  </si>
-  <si>
-    <t>[-0.2931682765483856]</t>
-  </si>
-  <si>
-    <t>[0.16041290760040283]</t>
-  </si>
-  <si>
-    <t>[0.6708418130874634]</t>
-  </si>
-  <si>
-    <t>[0.16605302691459656]</t>
-  </si>
-  <si>
-    <t>[0.553109884262085]</t>
-  </si>
-  <si>
-    <t>[-0.350387305021286]</t>
-  </si>
-  <si>
-    <t>[-0.20680546760559082]</t>
-  </si>
-  <si>
-    <t>[0.007814226672053337]</t>
-  </si>
-  <si>
-    <t>[-0.3288087844848633]</t>
-  </si>
-  <si>
-    <t>[0.31650230288505554]</t>
-  </si>
-  <si>
-    <t>[-0.035920727998018265]</t>
-  </si>
-  <si>
-    <t>[-0.11501619964838028]</t>
-  </si>
-  <si>
-    <t>[-0.5818248987197876]</t>
-  </si>
-  <si>
-    <t>[0.3800155222415924]</t>
-  </si>
-  <si>
-    <t>[0.20337983965873718]</t>
-  </si>
-  <si>
-    <t>[0.05567144602537155]</t>
-  </si>
-  <si>
-    <t>[-0.006478391587734222]</t>
-  </si>
-  <si>
-    <t>[-0.20741741359233856]</t>
+    <t>[0.2727274000644684]</t>
+  </si>
+  <si>
+    <t>[-0.2235267013311386]</t>
+  </si>
+  <si>
+    <t>[0.3983400762081146]</t>
+  </si>
+  <si>
+    <t>[0.36264118552207947]</t>
+  </si>
+  <si>
+    <t>[-0.4156959354877472]</t>
+  </si>
+  <si>
+    <t>[-0.3673422038555145]</t>
+  </si>
+  <si>
+    <t>[0.43637484312057495]</t>
+  </si>
+  <si>
+    <t>[0.13730166852474213]</t>
+  </si>
+  <si>
+    <t>[-0.28206929564476013]</t>
+  </si>
+  <si>
+    <t>[-0.0025147695560008287]</t>
+  </si>
+  <si>
+    <t>[0.692652702331543]</t>
+  </si>
+  <si>
+    <t>[0.4684998393058777]</t>
+  </si>
+  <si>
+    <t>[0.021619677543640137]</t>
+  </si>
+  <si>
+    <t>[-0.3611726760864258]</t>
+  </si>
+  <si>
+    <t>[0.045810095965862274]</t>
+  </si>
+  <si>
+    <t>[-0.02919146418571472]</t>
+  </si>
+  <si>
+    <t>[0.42511454224586487]</t>
+  </si>
+  <si>
+    <t>[-0.2136068195104599]</t>
+  </si>
+  <si>
+    <t>[0.2655465006828308]</t>
+  </si>
+  <si>
+    <t>[-0.1657196432352066]</t>
+  </si>
+  <si>
+    <t>[0.1282626837491989]</t>
+  </si>
+  <si>
+    <t>[0.10190227627754211]</t>
+  </si>
+  <si>
+    <t>[-0.0016921027563512325]</t>
+  </si>
+  <si>
+    <t>[-0.11556722968816757]</t>
+  </si>
+  <si>
+    <t>[0.3577575087547302]</t>
+  </si>
+  <si>
+    <t>[0.012466371059417725]</t>
+  </si>
+  <si>
+    <t>[-0.13336995244026184]</t>
+  </si>
+  <si>
+    <t>[-0.3149806261062622]</t>
+  </si>
+  <si>
+    <t>[-0.6912865042686462]</t>
+  </si>
+  <si>
+    <t>[-0.5065983533859253]</t>
+  </si>
+  <si>
+    <t>[0.4716039001941681]</t>
+  </si>
+  <si>
+    <t>[-0.23900464177131653]</t>
+  </si>
+  <si>
+    <t>[-0.26525625586509705]</t>
+  </si>
+  <si>
+    <t>[-0.45061829686164856]</t>
+  </si>
+  <si>
+    <t>[0.07117478549480438]</t>
+  </si>
+  <si>
+    <t>[0.3931581676006317]</t>
+  </si>
+  <si>
+    <t>[-0.5741721987724304]</t>
+  </si>
+  <si>
+    <t>[0.09972184896469116]</t>
+  </si>
+  <si>
+    <t>[-0.3477954566478729]</t>
+  </si>
+  <si>
+    <t>[-0.05255141109228134]</t>
+  </si>
+  <si>
+    <t>[0.28473734855651855]</t>
+  </si>
+  <si>
+    <t>[-0.1711282730102539]</t>
+  </si>
+  <si>
+    <t>[-0.048788875341415405]</t>
+  </si>
+  <si>
+    <t>[-0.3537171185016632]</t>
+  </si>
+  <si>
+    <t>[-0.5110393166542053]</t>
+  </si>
+  <si>
+    <t>[-0.12301378697156906]</t>
+  </si>
+  <si>
+    <t>[-0.1931898444890976]</t>
+  </si>
+  <si>
+    <t>[0.23420856893062592]</t>
+  </si>
+  <si>
+    <t>[-0.01236036792397499]</t>
+  </si>
+  <si>
+    <t>[0.47977742552757263]</t>
+  </si>
+  <si>
+    <t>[-0.12424693256616592]</t>
+  </si>
+  <si>
+    <t>[0.11609052866697311]</t>
+  </si>
+  <si>
+    <t>[0.5124421715736389]</t>
+  </si>
+  <si>
+    <t>[0.5365998148918152]</t>
+  </si>
+  <si>
+    <t>[-0.29509541392326355]</t>
+  </si>
+  <si>
+    <t>[-0.5663707852363586]</t>
+  </si>
+  <si>
+    <t>[0.6080822348594666]</t>
+  </si>
+  <si>
+    <t>[0.3432970941066742]</t>
+  </si>
+  <si>
+    <t>[-0.44227543473243713]</t>
+  </si>
+  <si>
+    <t>[-0.3119817078113556]</t>
+  </si>
+  <si>
+    <t>[0.48672112822532654]</t>
+  </si>
+  <si>
+    <t>[0.31327101588249207]</t>
+  </si>
+  <si>
+    <t>[0.7126345038414001]</t>
+  </si>
+  <si>
+    <t>[0.14688777923583984]</t>
+  </si>
+  <si>
+    <t>[-0.12223245203495026]</t>
+  </si>
+  <si>
+    <t>[-0.3346199691295624]</t>
+  </si>
+  <si>
+    <t>[0.025413936004042625]</t>
+  </si>
+  <si>
+    <t>[-0.12261585891246796]</t>
+  </si>
+  <si>
+    <t>[0.055153582245111465]</t>
+  </si>
+  <si>
+    <t>[0.14615003764629364]</t>
+  </si>
+  <si>
+    <t>[0.1607329100370407]</t>
+  </si>
+  <si>
+    <t>[-0.3954536020755768]</t>
+  </si>
+  <si>
+    <t>[0.32544535398483276]</t>
+  </si>
+  <si>
+    <t>[-0.4891451299190521]</t>
+  </si>
+  <si>
+    <t>[0.26245754957199097]</t>
+  </si>
+  <si>
+    <t>[0.19508306682109833]</t>
+  </si>
+  <si>
+    <t>[-0.45810171961784363]</t>
+  </si>
+  <si>
+    <t>[-0.16519708931446075]</t>
+  </si>
+  <si>
+    <t>[0.49729570746421814]</t>
+  </si>
+  <si>
+    <t>[-0.06998610496520996]</t>
+  </si>
+  <si>
+    <t>[0.15840165317058563]</t>
+  </si>
+  <si>
+    <t>[-0.25810208916664124]</t>
+  </si>
+  <si>
+    <t>[0.6670513153076172]</t>
+  </si>
+  <si>
+    <t>[-0.0818922147154808]</t>
+  </si>
+  <si>
+    <t>[-0.5675212144851685]</t>
+  </si>
+  <si>
+    <t>[-0.14530588686466217]</t>
+  </si>
+  <si>
+    <t>[-0.15875160694122314]</t>
+  </si>
+  <si>
+    <t>[0.3361509442329407]</t>
+  </si>
+  <si>
+    <t>[0.4230782389640808]</t>
+  </si>
+  <si>
+    <t>[-0.3815626800060272]</t>
+  </si>
+  <si>
+    <t>[-0.10726076364517212]</t>
+  </si>
+  <si>
+    <t>[0.31857961416244507]</t>
+  </si>
+  <si>
+    <t>[-0.026060866191983223]</t>
+  </si>
+  <si>
+    <t>[-0.3060855567455292]</t>
+  </si>
+  <si>
+    <t>[-0.1423545777797699]</t>
+  </si>
+  <si>
+    <t>[0.3859841227531433]</t>
+  </si>
+  <si>
+    <t>[-0.2777150571346283]</t>
+  </si>
+  <si>
+    <t>[0.6340085864067078]</t>
+  </si>
+  <si>
+    <t>[-0.24469150602817535]</t>
+  </si>
+  <si>
+    <t>[-0.5243178009986877]</t>
+  </si>
+  <si>
+    <t>[0.44749125838279724]</t>
+  </si>
+  <si>
+    <t>[-0.007176968269050121]</t>
+  </si>
+  <si>
+    <t>[-0.35917985439300537]</t>
+  </si>
+  <si>
+    <t>[-0.11421041190624237]</t>
+  </si>
+  <si>
+    <t>[0.6803473234176636]</t>
+  </si>
+  <si>
+    <t>[0.38340499997138977]</t>
+  </si>
+  <si>
+    <t>[-0.09782805293798447]</t>
+  </si>
+  <si>
+    <t>[-0.5078606605529785]</t>
+  </si>
+  <si>
+    <t>[0.37646496295928955]</t>
+  </si>
+  <si>
+    <t>[0.6264262795448303]</t>
+  </si>
+  <si>
+    <t>[0.17663241922855377]</t>
+  </si>
+  <si>
+    <t>[0.08663490414619446]</t>
+  </si>
+  <si>
+    <t>[0.15033885836601257]</t>
+  </si>
+  <si>
+    <t>[-0.4215505123138428]</t>
+  </si>
+  <si>
+    <t>[-0.09024514257907867]</t>
+  </si>
+  <si>
+    <t>[0.45927369594573975]</t>
+  </si>
+  <si>
+    <t>[-0.20342208445072174]</t>
+  </si>
+  <si>
+    <t>[0.4991978108882904]</t>
+  </si>
+  <si>
+    <t>[0.4678741991519928]</t>
+  </si>
+  <si>
+    <t>[0.09684402495622635]</t>
+  </si>
+  <si>
+    <t>[-0.5772863030433655]</t>
+  </si>
+  <si>
+    <t>[0.30895429849624634]</t>
+  </si>
+  <si>
+    <t>[-0.7097809910774231]</t>
+  </si>
+  <si>
+    <t>[-0.0386476144194603]</t>
+  </si>
+  <si>
+    <t>[0.7050418257713318]</t>
+  </si>
+  <si>
+    <t>[0.3716305196285248]</t>
+  </si>
+  <si>
+    <t>[-0.6988033652305603]</t>
+  </si>
+  <si>
+    <t>[0.3471066355705261]</t>
+  </si>
+  <si>
+    <t>[0.06756020337343216]</t>
+  </si>
+  <si>
+    <t>[0.4106391668319702]</t>
+  </si>
+  <si>
+    <t>[0.11560152471065521]</t>
+  </si>
+  <si>
+    <t>[0.27423804998397827]</t>
+  </si>
+  <si>
+    <t>[0.7097868919372559]</t>
+  </si>
+  <si>
+    <t>[0.6946945786476135]</t>
+  </si>
+  <si>
+    <t>[0.7571936249732971]</t>
+  </si>
+  <si>
+    <t>[-0.07235361635684967]</t>
+  </si>
+  <si>
+    <t>[-0.5101338028907776]</t>
+  </si>
+  <si>
+    <t>[0.12882733345031738]</t>
+  </si>
+  <si>
+    <t>[0.2633476257324219]</t>
+  </si>
+  <si>
+    <t>[0.12485948950052261]</t>
+  </si>
+  <si>
+    <t>[-0.14917200803756714]</t>
+  </si>
+  <si>
+    <t>[0.11523748189210892]</t>
+  </si>
+  <si>
+    <t>[0.3198462724685669]</t>
+  </si>
+  <si>
+    <t>[0.16361543536186218]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -475,436 +475,436 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[0.19127458333969116]</t>
-  </si>
-  <si>
-    <t>[0.3320046663284302]</t>
-  </si>
-  <si>
-    <t>[0.2509121596813202]</t>
-  </si>
-  <si>
-    <t>[0.13786101341247559]</t>
-  </si>
-  <si>
-    <t>[-0.09176202118396759]</t>
-  </si>
-  <si>
-    <t>[-0.09825026243925095]</t>
-  </si>
-  <si>
-    <t>[-0.2550736367702484]</t>
-  </si>
-  <si>
-    <t>[-0.26796260476112366]</t>
-  </si>
-  <si>
-    <t>[-0.3489064872264862]</t>
-  </si>
-  <si>
-    <t>[0.5709720253944397]</t>
-  </si>
-  <si>
-    <t>[-0.3524433374404907]</t>
-  </si>
-  <si>
-    <t>[-0.3429223895072937]</t>
-  </si>
-  <si>
-    <t>[0.1936255395412445]</t>
-  </si>
-  <si>
-    <t>[0.5257259607315063]</t>
-  </si>
-  <si>
-    <t>[0.5035686492919922]</t>
-  </si>
-  <si>
-    <t>[0.16072043776512146]</t>
-  </si>
-  <si>
-    <t>[-0.15690140426158905]</t>
-  </si>
-  <si>
-    <t>[0.10101451724767685]</t>
-  </si>
-  <si>
-    <t>[-0.2448904812335968]</t>
-  </si>
-  <si>
-    <t>[0.11003653705120087]</t>
-  </si>
-  <si>
-    <t>[-0.3030187487602234]</t>
-  </si>
-  <si>
-    <t>[0.14648279547691345]</t>
-  </si>
-  <si>
-    <t>[-0.07720097154378891]</t>
-  </si>
-  <si>
-    <t>[-0.32554924488067627]</t>
-  </si>
-  <si>
-    <t>[-0.3128242790699005]</t>
-  </si>
-  <si>
-    <t>[-0.04826747253537178]</t>
-  </si>
-  <si>
-    <t>[-0.1480441391468048]</t>
-  </si>
-  <si>
-    <t>[-0.3166225552558899]</t>
-  </si>
-  <si>
-    <t>[-0.4938300848007202]</t>
-  </si>
-  <si>
-    <t>[-0.13436366617679596]</t>
-  </si>
-  <si>
-    <t>[-0.3737596571445465]</t>
-  </si>
-  <si>
-    <t>[0.2059968262910843]</t>
-  </si>
-  <si>
-    <t>[-0.056675903499126434]</t>
-  </si>
-  <si>
-    <t>[-0.1194734126329422]</t>
-  </si>
-  <si>
-    <t>[0.12779180705547333]</t>
-  </si>
-  <si>
-    <t>[0.03206918388605118]</t>
-  </si>
-  <si>
-    <t>[-0.3477645218372345]</t>
-  </si>
-  <si>
-    <t>[0.19618290662765503]</t>
-  </si>
-  <si>
-    <t>[-0.12885573506355286]</t>
-  </si>
-  <si>
-    <t>[0.30429428815841675]</t>
-  </si>
-  <si>
-    <t>[-0.023140957579016685]</t>
-  </si>
-  <si>
-    <t>[0.18257302045822144]</t>
-  </si>
-  <si>
-    <t>[0.09868098050355911]</t>
-  </si>
-  <si>
-    <t>[-0.08789526671171188]</t>
-  </si>
-  <si>
-    <t>[-0.17871159315109253]</t>
-  </si>
-  <si>
-    <t>[-0.09923076629638672]</t>
-  </si>
-  <si>
-    <t>[0.392981618642807]</t>
-  </si>
-  <si>
-    <t>[0.10228723287582397]</t>
-  </si>
-  <si>
-    <t>[0.22000464797019958]</t>
-  </si>
-  <si>
-    <t>[0.45039477944374084]</t>
-  </si>
-  <si>
-    <t>[0.04118018597364426]</t>
-  </si>
-  <si>
-    <t>[0.04098479449748993]</t>
-  </si>
-  <si>
-    <t>[0.15794244408607483]</t>
-  </si>
-  <si>
-    <t>[-0.11034736037254333]</t>
-  </si>
-  <si>
-    <t>[-0.14911779761314392]</t>
-  </si>
-  <si>
-    <t>[0.12506037950515747]</t>
-  </si>
-  <si>
-    <t>[0.021777451038360596]</t>
-  </si>
-  <si>
-    <t>[0.4826816916465759]</t>
-  </si>
-  <si>
-    <t>[-0.2591453194618225]</t>
-  </si>
-  <si>
-    <t>[-0.21841822564601898]</t>
-  </si>
-  <si>
-    <t>[0.5177472233772278]</t>
-  </si>
-  <si>
-    <t>[0.631434977054596]</t>
-  </si>
-  <si>
-    <t>[0.3534882068634033]</t>
-  </si>
-  <si>
-    <t>[-0.25798365473747253]</t>
-  </si>
-  <si>
-    <t>[-0.03046860359609127]</t>
-  </si>
-  <si>
-    <t>[0.5768771171569824]</t>
-  </si>
-  <si>
-    <t>[0.4627596437931061]</t>
-  </si>
-  <si>
-    <t>[-0.09377613663673401]</t>
-  </si>
-  <si>
-    <t>[0.13317260146141052]</t>
-  </si>
-  <si>
-    <t>[0.03159802034497261]</t>
-  </si>
-  <si>
-    <t>[-0.046857789158821106]</t>
-  </si>
-  <si>
-    <t>[0.11025165766477585]</t>
-  </si>
-  <si>
-    <t>[-0.16354584693908691]</t>
-  </si>
-  <si>
-    <t>[-0.0470692403614521]</t>
-  </si>
-  <si>
-    <t>[-0.12753118574619293]</t>
-  </si>
-  <si>
-    <t>[0.05690272897481918]</t>
-  </si>
-  <si>
-    <t>[-0.02817320078611374]</t>
-  </si>
-  <si>
-    <t>[-0.11640188097953796]</t>
-  </si>
-  <si>
-    <t>[-0.2678990364074707]</t>
-  </si>
-  <si>
-    <t>[-0.5600286722183228]</t>
-  </si>
-  <si>
-    <t>[0.39917558431625366]</t>
-  </si>
-  <si>
-    <t>[-0.39388027787208557]</t>
-  </si>
-  <si>
-    <t>[0.47366297245025635]</t>
-  </si>
-  <si>
-    <t>[-0.023415258154273033]</t>
-  </si>
-  <si>
-    <t>[-0.2817542850971222]</t>
-  </si>
-  <si>
-    <t>[-0.39252394437789917]</t>
-  </si>
-  <si>
-    <t>[-0.1943187564611435]</t>
-  </si>
-  <si>
-    <t>[-0.1682400405406952]</t>
-  </si>
-  <si>
-    <t>[0.35968270897865295]</t>
-  </si>
-  <si>
-    <t>[-0.20625537633895874]</t>
-  </si>
-  <si>
-    <t>[-0.1759253889322281]</t>
-  </si>
-  <si>
-    <t>[0.1545960009098053]</t>
-  </si>
-  <si>
-    <t>[0.061860352754592896]</t>
-  </si>
-  <si>
-    <t>[0.11909718066453934]</t>
-  </si>
-  <si>
-    <t>[0.3533894419670105]</t>
-  </si>
-  <si>
-    <t>[0.38751015067100525]</t>
-  </si>
-  <si>
-    <t>[0.21304960548877716]</t>
-  </si>
-  <si>
-    <t>[0.001527911750599742]</t>
-  </si>
-  <si>
-    <t>[0.6939483880996704]</t>
-  </si>
-  <si>
-    <t>[0.10255362838506699]</t>
-  </si>
-  <si>
-    <t>[0.3267425298690796]</t>
-  </si>
-  <si>
-    <t>[-0.10656536370515823]</t>
-  </si>
-  <si>
-    <t>[-0.05515623465180397]</t>
-  </si>
-  <si>
-    <t>[0.11501529067754745]</t>
-  </si>
-  <si>
-    <t>[-0.0677218958735466]</t>
-  </si>
-  <si>
-    <t>[0.6449044942855835]</t>
-  </si>
-  <si>
-    <t>[-0.2024332880973816]</t>
-  </si>
-  <si>
-    <t>[-0.2543458640575409]</t>
-  </si>
-  <si>
-    <t>[0.33998796343803406]</t>
-  </si>
-  <si>
-    <t>[0.13896889984607697]</t>
-  </si>
-  <si>
-    <t>[0.06259643286466599]</t>
-  </si>
-  <si>
-    <t>[0.2616366147994995]</t>
-  </si>
-  <si>
-    <t>[-0.1697557121515274]</t>
-  </si>
-  <si>
-    <t>[0.2334509640932083]</t>
-  </si>
-  <si>
-    <t>[0.08815071731805801]</t>
-  </si>
-  <si>
-    <t>[-0.047131989151239395]</t>
-  </si>
-  <si>
-    <t>[0.3522184193134308]</t>
-  </si>
-  <si>
-    <t>[0.03232359513640404]</t>
-  </si>
-  <si>
-    <t>[0.35566607117652893]</t>
-  </si>
-  <si>
-    <t>[-0.24566589295864105]</t>
-  </si>
-  <si>
-    <t>[-0.178879052400589]</t>
-  </si>
-  <si>
-    <t>[0.008046813309192657]</t>
-  </si>
-  <si>
-    <t>[-0.36850547790527344]</t>
-  </si>
-  <si>
-    <t>[-0.15817604959011078]</t>
-  </si>
-  <si>
-    <t>[-0.13094235956668854]</t>
-  </si>
-  <si>
-    <t>[-0.074532650411129]</t>
-  </si>
-  <si>
-    <t>[0.14273524284362793]</t>
-  </si>
-  <si>
-    <t>[-0.07341250777244568]</t>
-  </si>
-  <si>
-    <t>[0.2590077221393585]</t>
-  </si>
-  <si>
-    <t>[-0.5719946026802063]</t>
-  </si>
-  <si>
-    <t>[-0.009739886969327927]</t>
-  </si>
-  <si>
-    <t>[-0.37431079149246216]</t>
-  </si>
-  <si>
-    <t>[0.24181996285915375]</t>
-  </si>
-  <si>
-    <t>[-0.14181400835514069]</t>
-  </si>
-  <si>
-    <t>[-0.09825539588928223]</t>
-  </si>
-  <si>
-    <t>[0.3333706855773926]</t>
-  </si>
-  <si>
-    <t>[0.010198098607361317]</t>
-  </si>
-  <si>
-    <t>[-0.040787603706121445]</t>
-  </si>
-  <si>
-    <t>[-0.4288609027862549]</t>
-  </si>
-  <si>
-    <t>[-0.19831594824790955]</t>
-  </si>
-  <si>
-    <t>[0.05257081240415573]</t>
-  </si>
-  <si>
-    <t>[-0.023985203355550766]</t>
-  </si>
-  <si>
-    <t>[0.06163604184985161]</t>
-  </si>
-  <si>
-    <t>[0.20679593086242676]</t>
+    <t>[0.6361285448074341]</t>
+  </si>
+  <si>
+    <t>[0.0970740094780922]</t>
+  </si>
+  <si>
+    <t>[0.3574267625808716]</t>
+  </si>
+  <si>
+    <t>[-0.017079101875424385]</t>
+  </si>
+  <si>
+    <t>[-0.4022192060947418]</t>
+  </si>
+  <si>
+    <t>[-0.39631345868110657]</t>
+  </si>
+  <si>
+    <t>[0.11579769104719162]</t>
+  </si>
+  <si>
+    <t>[0.010755251161754131]</t>
+  </si>
+  <si>
+    <t>[-0.46068689227104187]</t>
+  </si>
+  <si>
+    <t>[-0.3968982994556427]</t>
+  </si>
+  <si>
+    <t>[0.7514469027519226]</t>
+  </si>
+  <si>
+    <t>[0.45018985867500305]</t>
+  </si>
+  <si>
+    <t>[-0.12161576002836227]</t>
+  </si>
+  <si>
+    <t>[-0.16914567351341248]</t>
+  </si>
+  <si>
+    <t>[-0.16218626499176025]</t>
+  </si>
+  <si>
+    <t>[0.19455574452877045]</t>
+  </si>
+  <si>
+    <t>[0.09878118336200714]</t>
+  </si>
+  <si>
+    <t>[-0.02386455051600933]</t>
+  </si>
+  <si>
+    <t>[0.13421761989593506]</t>
+  </si>
+  <si>
+    <t>[-0.037632472813129425]</t>
+  </si>
+  <si>
+    <t>[-0.04105886071920395]</t>
+  </si>
+  <si>
+    <t>[0.28122836351394653]</t>
+  </si>
+  <si>
+    <t>[-0.3415238559246063]</t>
+  </si>
+  <si>
+    <t>[-0.025897067040205002]</t>
+  </si>
+  <si>
+    <t>[-0.4263469874858856]</t>
+  </si>
+  <si>
+    <t>[0.4400683641433716]</t>
+  </si>
+  <si>
+    <t>[-0.25923505425453186]</t>
+  </si>
+  <si>
+    <t>[-0.27736684679985046]</t>
+  </si>
+  <si>
+    <t>[0.7498281002044678]</t>
+  </si>
+  <si>
+    <t>[0.09158237278461456]</t>
+  </si>
+  <si>
+    <t>[-0.07228685170412064]</t>
+  </si>
+  <si>
+    <t>[-0.06358632445335388]</t>
+  </si>
+  <si>
+    <t>[-0.08020752668380737]</t>
+  </si>
+  <si>
+    <t>[0.0923057347536087]</t>
+  </si>
+  <si>
+    <t>[-0.5628117322921753]</t>
+  </si>
+  <si>
+    <t>[-0.21814826130867004]</t>
+  </si>
+  <si>
+    <t>[0.26232853531837463]</t>
+  </si>
+  <si>
+    <t>[0.5514010190963745]</t>
+  </si>
+  <si>
+    <t>[0.056385137140750885]</t>
+  </si>
+  <si>
+    <t>[-0.0763358548283577]</t>
+  </si>
+  <si>
+    <t>[-0.17506210505962372]</t>
+  </si>
+  <si>
+    <t>[0.20195655524730682]</t>
+  </si>
+  <si>
+    <t>[-0.06971801072359085]</t>
+  </si>
+  <si>
+    <t>[-0.18742616474628448]</t>
+  </si>
+  <si>
+    <t>[0.22656753659248352]</t>
+  </si>
+  <si>
+    <t>[0.13293498754501343]</t>
+  </si>
+  <si>
+    <t>[0.009991331957280636]</t>
+  </si>
+  <si>
+    <t>[-0.4065309762954712]</t>
+  </si>
+  <si>
+    <t>[-0.10413418710231781]</t>
+  </si>
+  <si>
+    <t>[0.06971067935228348]</t>
+  </si>
+  <si>
+    <t>[-0.1413750946521759]</t>
+  </si>
+  <si>
+    <t>[-0.1942579597234726]</t>
+  </si>
+  <si>
+    <t>[0.6317668557167053]</t>
+  </si>
+  <si>
+    <t>[0.5076258778572083]</t>
+  </si>
+  <si>
+    <t>[-0.2977502644062042]</t>
+  </si>
+  <si>
+    <t>[0.10829566419124603]</t>
+  </si>
+  <si>
+    <t>[0.31536972522735596]</t>
+  </si>
+  <si>
+    <t>[0.07993842661380768]</t>
+  </si>
+  <si>
+    <t>[-0.3554023802280426]</t>
+  </si>
+  <si>
+    <t>[0.22750386595726013]</t>
+  </si>
+  <si>
+    <t>[0.3063723146915436]</t>
+  </si>
+  <si>
+    <t>[0.33315184712409973]</t>
+  </si>
+  <si>
+    <t>[0.36635708808898926]</t>
+  </si>
+  <si>
+    <t>[0.03105190023779869]</t>
+  </si>
+  <si>
+    <t>[0.1842927783727646]</t>
+  </si>
+  <si>
+    <t>[-0.4004320800304413]</t>
+  </si>
+  <si>
+    <t>[-0.17855459451675415]</t>
+  </si>
+  <si>
+    <t>[0.17187409102916718]</t>
+  </si>
+  <si>
+    <t>[0.2818410098552704]</t>
+  </si>
+  <si>
+    <t>[0.010196282528340816]</t>
+  </si>
+  <si>
+    <t>[0.4401606619358063]</t>
+  </si>
+  <si>
+    <t>[0.557418167591095]</t>
+  </si>
+  <si>
+    <t>[0.2616998851299286]</t>
+  </si>
+  <si>
+    <t>[-0.17076660692691803]</t>
+  </si>
+  <si>
+    <t>[0.8431892991065979]</t>
+  </si>
+  <si>
+    <t>[-0.2263813018798828]</t>
+  </si>
+  <si>
+    <t>[-0.5263965129852295]</t>
+  </si>
+  <si>
+    <t>[-0.49186933040618896]</t>
+  </si>
+  <si>
+    <t>[0.48504477739334106]</t>
+  </si>
+  <si>
+    <t>[-0.10085813701152802]</t>
+  </si>
+  <si>
+    <t>[-0.2590864896774292]</t>
+  </si>
+  <si>
+    <t>[-0.2837540805339813]</t>
+  </si>
+  <si>
+    <t>[0.5945621728897095]</t>
+  </si>
+  <si>
+    <t>[0.12237368524074554]</t>
+  </si>
+  <si>
+    <t>[-0.43025803565979004]</t>
+  </si>
+  <si>
+    <t>[-0.5597181916236877]</t>
+  </si>
+  <si>
+    <t>[-0.4667280912399292]</t>
+  </si>
+  <si>
+    <t>[-0.07417955249547958]</t>
+  </si>
+  <si>
+    <t>[-0.05160873383283615]</t>
+  </si>
+  <si>
+    <t>[-0.03450031578540802]</t>
+  </si>
+  <si>
+    <t>[0.13114416599273682]</t>
+  </si>
+  <si>
+    <t>[-0.537663996219635]</t>
+  </si>
+  <si>
+    <t>[-0.11876367032527924]</t>
+  </si>
+  <si>
+    <t>[-0.22848473489284515]</t>
+  </si>
+  <si>
+    <t>[0.031148163601756096]</t>
+  </si>
+  <si>
+    <t>[0.01830926164984703]</t>
+  </si>
+  <si>
+    <t>[-0.2284090220928192]</t>
+  </si>
+  <si>
+    <t>[-0.02972983382642269]</t>
+  </si>
+  <si>
+    <t>[-0.2704780399799347]</t>
+  </si>
+  <si>
+    <t>[0.2460339367389679]</t>
+  </si>
+  <si>
+    <t>[-0.03373469412326813]</t>
+  </si>
+  <si>
+    <t>[0.36257949471473694]</t>
+  </si>
+  <si>
+    <t>[0.14017604291439056]</t>
+  </si>
+  <si>
+    <t>[0.32623010873794556]</t>
+  </si>
+  <si>
+    <t>[0.23574766516685486]</t>
+  </si>
+  <si>
+    <t>[0.23138996958732605]</t>
+  </si>
+  <si>
+    <t>[-0.23802974820137024]</t>
+  </si>
+  <si>
+    <t>[-0.08724404126405716]</t>
+  </si>
+  <si>
+    <t>[0.45620641112327576]</t>
+  </si>
+  <si>
+    <t>[0.21691666543483734]</t>
+  </si>
+  <si>
+    <t>[0.7059346437454224]</t>
+  </si>
+  <si>
+    <t>[-0.19689275324344635]</t>
+  </si>
+  <si>
+    <t>[0.25347527861595154]</t>
+  </si>
+  <si>
+    <t>[-0.27437764406204224]</t>
+  </si>
+  <si>
+    <t>[-0.09328672289848328]</t>
+  </si>
+  <si>
+    <t>[-0.25222912430763245]</t>
+  </si>
+  <si>
+    <t>[0.46141326427459717]</t>
+  </si>
+  <si>
+    <t>[0.33318471908569336]</t>
+  </si>
+  <si>
+    <t>[0.0747721791267395]</t>
+  </si>
+  <si>
+    <t>[0.04017888754606247]</t>
+  </si>
+  <si>
+    <t>[0.28435802459716797]</t>
+  </si>
+  <si>
+    <t>[-0.19147613644599915]</t>
+  </si>
+  <si>
+    <t>[0.15663249790668488]</t>
+  </si>
+  <si>
+    <t>[0.2247576117515564]</t>
+  </si>
+  <si>
+    <t>[-0.3379901945590973]</t>
+  </si>
+  <si>
+    <t>[-0.06782986968755722]</t>
+  </si>
+  <si>
+    <t>[0.2508842349052429]</t>
+  </si>
+  <si>
+    <t>[0.1640346199274063]</t>
+  </si>
+  <si>
+    <t>[0.15145878493785858]</t>
+  </si>
+  <si>
+    <t>[0.0960560217499733]</t>
+  </si>
+  <si>
+    <t>[0.13037006556987762]</t>
+  </si>
+  <si>
+    <t>[0.6869271397590637]</t>
+  </si>
+  <si>
+    <t>[0.020250774919986725]</t>
+  </si>
+  <si>
+    <t>[-0.30534765124320984]</t>
+  </si>
+  <si>
+    <t>[-0.3982357084751129]</t>
+  </si>
+  <si>
+    <t>[0.6406447291374207]</t>
+  </si>
+  <si>
+    <t>[0.6251522898674011]</t>
+  </si>
+  <si>
+    <t>[-0.13678064942359924]</t>
+  </si>
+  <si>
+    <t>[0.4184865951538086]</t>
+  </si>
+  <si>
+    <t>[-0.416168749332428]</t>
+  </si>
+  <si>
+    <t>[0.05239453911781311]</t>
+  </si>
+  <si>
+    <t>[-0.44808632135391235]</t>
+  </si>
+  <si>
+    <t>[-0.44484251737594604]</t>
+  </si>
+  <si>
+    <t>[0.17824944853782654]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -919,76 +919,76 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[0.28934988379478455]</t>
-  </si>
-  <si>
-    <t>[1.2979544401168823]</t>
-  </si>
-  <si>
-    <t>[0.2892516851425171]</t>
-  </si>
-  <si>
-    <t>[0.09811817854642868]</t>
-  </si>
-  <si>
-    <t>[0.1528492271900177]</t>
-  </si>
-  <si>
-    <t>[1.096811294555664]</t>
-  </si>
-  <si>
-    <t>[-0.15905316174030304]</t>
-  </si>
-  <si>
-    <t>[0.04548931121826172]</t>
-  </si>
-  <si>
-    <t>[-0.2782096564769745]</t>
-  </si>
-  <si>
-    <t>[1.273491382598877]</t>
-  </si>
-  <si>
-    <t>[-0.27464449405670166]</t>
-  </si>
-  <si>
-    <t>[0.0822010189294815]</t>
-  </si>
-  <si>
-    <t>[0.2910059094429016]</t>
-  </si>
-  <si>
-    <t>[1.302175521850586]</t>
-  </si>
-  <si>
-    <t>[0.28316059708595276]</t>
-  </si>
-  <si>
-    <t>[-0.05528954789042473]</t>
-  </si>
-  <si>
-    <t>[-0.18636009097099304]</t>
-  </si>
-  <si>
-    <t>[1.2088901996612549]</t>
-  </si>
-  <si>
-    <t>[0.20306752622127533]</t>
-  </si>
-  <si>
-    <t>[-0.03352854773402214]</t>
-  </si>
-  <si>
-    <t>[0.1130894273519516]</t>
-  </si>
-  <si>
-    <t>[1.2080470323562622]</t>
-  </si>
-  <si>
-    <t>[0.07795725017786026]</t>
-  </si>
-  <si>
-    <t>[-0.2309451550245285]</t>
+    <t>[-0.36289843916893005]</t>
+  </si>
+  <si>
+    <t>[1.3329777717590332]</t>
+  </si>
+  <si>
+    <t>[-0.3524492383003235]</t>
+  </si>
+  <si>
+    <t>[-0.0710989311337471]</t>
+  </si>
+  <si>
+    <t>[0.3701254427433014]</t>
+  </si>
+  <si>
+    <t>[1.3740592002868652]</t>
+  </si>
+  <si>
+    <t>[-0.36986637115478516]</t>
+  </si>
+  <si>
+    <t>[-0.11448262631893158]</t>
+  </si>
+  <si>
+    <t>[0.3425333797931671]</t>
+  </si>
+  <si>
+    <t>[1.3272984027862549]</t>
+  </si>
+  <si>
+    <t>[-0.3441937267780304]</t>
+  </si>
+  <si>
+    <t>[-0.06523530185222626]</t>
+  </si>
+  <si>
+    <t>[0.36036911606788635]</t>
+  </si>
+  <si>
+    <t>[1.3656208515167236]</t>
+  </si>
+  <si>
+    <t>[0.35288533568382263]</t>
+  </si>
+  <si>
+    <t>[-0.10246515274047852]</t>
+  </si>
+  <si>
+    <t>[-0.1850721836090088]</t>
+  </si>
+  <si>
+    <t>[1.0474011898040771]</t>
+  </si>
+  <si>
+    <t>[-0.21177642047405243]</t>
+  </si>
+  <si>
+    <t>[0.06859305500984192]</t>
+  </si>
+  <si>
+    <t>[0.25582075119018555]</t>
+  </si>
+  <si>
+    <t>[1.2884693145751953]</t>
+  </si>
+  <si>
+    <t>[0.26598507165908813]</t>
+  </si>
+  <si>
+    <t>[-0.028442606329917908]</t>
   </si>
 </sst>
 </file>
